--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7DDBE0-60FD-4256-A021-F65B74BC87F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81BF70D-7D1A-4E28-90EC-0CD351707C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3713" yWindow="1312" windowWidth="18000" windowHeight="9398" xr2:uid="{95BFE393-208F-4FF8-9AF2-A775CF652423}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{95BFE393-208F-4FF8-9AF2-A775CF652423}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Inferencia causal</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Tema</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +112,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F68E1D-115A-452E-9FC7-724847FE2C6A}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -483,8 +489,8 @@
       <c r="B5" s="2">
         <v>45237</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -495,7 +501,7 @@
         <v>45239</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -506,7 +512,7 @@
         <v>45244</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -517,7 +523,7 @@
         <v>45246</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -539,7 +545,7 @@
         <v>45253</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
